--- a/TopicSurvey_RawData.xlsx
+++ b/TopicSurvey_RawData.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d372dddd5b3a4fbb/Documents/Research_AVB/AuburnUniversity/CourseDevelopment/Tools_Fall2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/avb0033_auburn_edu/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{0A94151C-BCB2-4CA7-86AF-A2CB13719022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BBDE572-26F8-4C0F-83FD-E9099C52A5AF}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{0A94151C-BCB2-4CA7-86AF-A2CB13719022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2025EA65-1D9B-48F9-BC34-729D9F978F44}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8C5DDFF3-D02F-49A4-8097-1F3DD207D187}"/>
+    <workbookView xWindow="40650" yWindow="3090" windowWidth="28800" windowHeight="15345" xr2:uid="{8C5DDFF3-D02F-49A4-8097-1F3DD207D187}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -143,6 +142,12 @@
   </si>
   <si>
     <t>Preprint servers</t>
+  </si>
+  <si>
+    <t>Basanta Shrestha</t>
+  </si>
+  <si>
+    <t>p-value</t>
   </si>
 </sst>
 </file>
@@ -274,13 +279,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -607,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A925EF-4004-42B0-83AA-E0FE9C3D47A2}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,13 +651,13 @@
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -662,25 +666,25 @@
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -697,37 +701,37 @@
       <c r="D3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -750,31 +754,31 @@
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -785,10 +789,10 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -797,31 +801,31 @@
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -835,7 +839,7 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -847,28 +851,28 @@
       <c r="G6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -879,10 +883,10 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -897,25 +901,25 @@
       <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -929,40 +933,40 @@
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -976,25 +980,25 @@
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>32</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1003,13 +1007,13 @@
       <c r="L9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1017,13 +1021,13 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1032,36 +1036,80 @@
       <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G15" s="5"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
